--- a/test points for synthetic deata (version 1).xlsx
+++ b/test points for synthetic deata (version 1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisha\Documents\bioreactor-kinetic-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{762EFCB5-CCEA-4F43-98BD-D0403995C1C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C33CDA-E1E3-4BED-A05C-834EEA81419D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7C40FEE5-6CCC-44F1-9D51-C7CEEB3B2165}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,11 +24,54 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>R1P</t>
+  </si>
+  <si>
+    <t>kPL</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>R1Lin</t>
+  </si>
+  <si>
+    <t>kLP</t>
+  </si>
+  <si>
+    <t>kMCT4</t>
+  </si>
+  <si>
+    <t>R1Lex</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>kMCT1</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -564,10 +606,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA38AC4-B0F1-4F8F-BACD-E79C4A27BB7A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2856,6 +2898,44 @@
         <v>1250000000</v>
       </c>
     </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
